--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/NorthStar_ClientRepository.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/NorthStar_ClientRepository.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131C4B2-730F-4517-98D0-68935D545EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54BF193-21CF-45E1-802E-D3AE15A10611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="NorthStar_ClientRepository" sheetId="1" r:id="rId1"/>
+    <sheet name="NorthStar_ClientRepository (9)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Client Name</t>
   </si>
@@ -139,49 +139,58 @@
     <t>Checkpoint0_ActualValue</t>
   </si>
   <si>
-    <t>Test_June01</t>
-  </si>
-  <si>
-    <t>PhoenixNS1</t>
-  </si>
-  <si>
-    <t>2069#2070</t>
-  </si>
-  <si>
-    <t>BusinessUnit#BusinessUnit</t>
+    <t>NS_June3</t>
+  </si>
+  <si>
+    <t>NS_June10</t>
+  </si>
+  <si>
+    <t>BusinessUnit</t>
   </si>
   <si>
     <t>nivetha.ramamurthy@ds.dev.accenture.com</t>
   </si>
   <si>
+    <t>2021-06-10T09:34:49</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Phoenix BU1</t>
-  </si>
-  <si>
-    <t>BusinessUnit</t>
+    <t>Business unit June 10</t>
+  </si>
+  <si>
+    <t>802#804</t>
+  </si>
+  <si>
+    <t>ServiceLine#BusinessProcess</t>
+  </si>
+  <si>
+    <t>2021-06-10T09:34:47</t>
+  </si>
+  <si>
+    <t>Service Line june 10</t>
   </si>
   <si>
     <t>ServiceLine</t>
   </si>
   <si>
-    <t>Phoenix Service Line 1</t>
-  </si>
-  <si>
     <t>BusinessProcess</t>
   </si>
   <si>
-    <t>Phoenix BP1</t>
+    <t>Business Process june 10</t>
+  </si>
+  <si>
+    <t>Business Process 2 june 10</t>
   </si>
   <si>
     <t>BusinessKPI</t>
   </si>
   <si>
-    <t>Phoenix Business KPI 1</t>
+    <t>Business KPI June 10</t>
   </si>
   <si>
     <t>ITKPI</t>
@@ -190,13 +199,22 @@
     <t>1 : Very-Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Phoenix IT KPI 1 </t>
+    <t>2021-06-10T09:34:08</t>
+  </si>
+  <si>
+    <t>IT KPI June 10</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2021-06-10T09:34:34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,9 +692,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1031,18 +1048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1168,16 +1181,16 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>9808533255</v>
+        <v>8716172871</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="O2">
-        <v>2068</v>
+        <v>800</v>
       </c>
       <c r="P2">
-        <v>325</v>
+        <v>126</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
@@ -1185,17 +1198,17 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2">
+        <v>801</v>
+      </c>
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
-      </c>
-      <c r="W2" s="1">
-        <v>44348</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -1227,7 +1240,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>9808533255</v>
+        <v>8716172871</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1236,31 +1249,31 @@
         <v>46</v>
       </c>
       <c r="O3">
-        <v>2069</v>
+        <v>801</v>
       </c>
       <c r="P3">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R3">
-        <v>2068</v>
+        <v>800</v>
       </c>
       <c r="S3" t="s">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>2071</v>
+      <c r="T3" t="s">
+        <v>47</v>
       </c>
       <c r="U3" t="s">
         <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="1">
-        <v>44348</v>
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -1271,7 +1284,7 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>9808533255</v>
+        <v>8716172871</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -1280,34 +1293,34 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>802</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>801</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4">
+        <v>803</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
         <v>49</v>
-      </c>
-      <c r="O4">
-        <v>2071</v>
-      </c>
-      <c r="P4">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4">
-        <v>2069</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4">
-        <v>2073</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="1">
-        <v>44348</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -1318,7 +1331,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>9808533255</v>
+        <v>8716172871</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1327,37 +1340,31 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <v>803</v>
+      </c>
+      <c r="P5">
+        <v>862</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5">
+        <v>802</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5">
-        <v>2073</v>
-      </c>
-      <c r="P5">
-        <v>1599</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>2071</v>
-      </c>
-      <c r="S5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5">
-        <v>2076</v>
-      </c>
-      <c r="U5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="1">
-        <v>44348</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1368,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>9808533255</v>
+        <v>8716172871</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1376,70 +1383,37 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6">
-        <v>2076</v>
+        <v>804</v>
       </c>
       <c r="P6">
-        <v>1601</v>
+        <v>863</v>
       </c>
       <c r="Q6" t="s">
         <v>52</v>
       </c>
       <c r="R6">
-        <v>2073</v>
+        <v>801</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="T6">
-        <v>2077</v>
+        <v>805</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="1">
-        <v>44348</v>
+        <v>42</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
       </c>
       <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6">
-        <v>5</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>44348</v>
-      </c>
-      <c r="AL6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1422,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>9808533255</v>
+        <v>8716172871</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1456,38 +1430,38 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
         <v>56</v>
       </c>
       <c r="O7">
-        <v>2077</v>
+        <v>805</v>
       </c>
       <c r="P7">
-        <v>1603</v>
+        <v>864</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7">
-        <v>2076</v>
+        <v>804</v>
       </c>
       <c r="S7" t="s">
         <v>52</v>
       </c>
+      <c r="T7">
+        <v>806</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
       <c r="V7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="1">
-        <v>44348</v>
+        <v>42</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1508,20 +1482,93 @@
         <v>45</v>
       </c>
       <c r="AF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>8716172871</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>806</v>
+      </c>
+      <c r="P8">
+        <v>865</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8">
+        <v>805</v>
+      </c>
+      <c r="S8" t="s">
         <v>55</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>44348</v>
-      </c>
-      <c r="AL7" t="b">
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL8" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/NorthStar_ClientRepository.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/NorthStar_ClientRepository.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54BF193-21CF-45E1-802E-D3AE15A10611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2A32C2-543C-446F-9253-A26A91F0DB3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="NorthStar_ClientRepository (9)" sheetId="1" r:id="rId1"/>
+    <sheet name="NorthStar_ClientRepository" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
-  <si>
-    <t>Client Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Contract ID</t>
   </si>
@@ -139,19 +136,19 @@
     <t>Checkpoint0_ActualValue</t>
   </si>
   <si>
-    <t>NS_June3</t>
-  </si>
-  <si>
-    <t>NS_June10</t>
+    <t>RAG</t>
+  </si>
+  <si>
+    <t>NS_Entities</t>
   </si>
   <si>
     <t>BusinessUnit</t>
   </si>
   <si>
-    <t>nivetha.ramamurthy@ds.dev.accenture.com</t>
-  </si>
-  <si>
-    <t>2021-06-10T09:34:49</t>
+    <t>nagaswetha.korlapati@ds.dev.accenture.com</t>
+  </si>
+  <si>
+    <t>2021-09-06T07:02:59</t>
   </si>
   <si>
     <t>Number</t>
@@ -160,55 +157,40 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Business unit June 10</t>
-  </si>
-  <si>
-    <t>802#804</t>
+    <t>Very-Low</t>
+  </si>
+  <si>
+    <t>2020#2021</t>
   </si>
   <si>
     <t>ServiceLine#BusinessProcess</t>
   </si>
   <si>
-    <t>2021-06-10T09:34:47</t>
-  </si>
-  <si>
-    <t>Service Line june 10</t>
-  </si>
-  <si>
     <t>ServiceLine</t>
   </si>
   <si>
+    <t>2021-09-06T07:01:56</t>
+  </si>
+  <si>
+    <t>BusinessProcessHierarchy</t>
+  </si>
+  <si>
     <t>BusinessProcess</t>
   </si>
   <si>
-    <t>Business Process june 10</t>
-  </si>
-  <si>
-    <t>Business Process 2 june 10</t>
-  </si>
-  <si>
     <t>BusinessKPI</t>
   </si>
   <si>
-    <t>Business KPI June 10</t>
-  </si>
-  <si>
     <t>ITKPI</t>
   </si>
   <si>
-    <t>1 : Very-Low</t>
-  </si>
-  <si>
-    <t>2021-06-10T09:34:08</t>
-  </si>
-  <si>
-    <t>IT KPI June 10</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2021-06-10T09:34:34</t>
+    <t>2021-09-06T07:02:32</t>
+  </si>
+  <si>
+    <t>2021-09-06T07:02:50</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1049,172 +1031,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>9484737284</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
-        <v>8716172871</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="O2">
-        <v>800</v>
+        <v>2018</v>
       </c>
       <c r="P2">
-        <v>126</v>
+        <v>349</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>801</v>
+        <v>2019</v>
       </c>
       <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z2">
         <v>5</v>
@@ -1223,9 +1203,12 @@
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" t="s">
         <v>45</v>
       </c>
       <c r="AG2">
@@ -1237,43 +1220,43 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>9484737284</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
-        <v>8716172871</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="O3">
+        <v>2019</v>
+      </c>
+      <c r="P3">
+        <v>118</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>2018</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>46</v>
       </c>
-      <c r="O3">
-        <v>801</v>
-      </c>
-      <c r="P3">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
         <v>41</v>
       </c>
-      <c r="R3">
-        <v>800</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -1281,43 +1264,37 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>9484737284</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>8716172871</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>802</v>
+        <v>2020</v>
       </c>
       <c r="P4">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R4">
-        <v>801</v>
+        <v>2019</v>
       </c>
       <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s">
         <v>41</v>
-      </c>
-      <c r="T4">
-        <v>803</v>
-      </c>
-      <c r="U4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
       </c>
       <c r="W4" t="s">
         <v>49</v>
@@ -1328,43 +1305,46 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>9484737284</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>8716172871</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
       <c r="O5">
-        <v>803</v>
+        <v>2021</v>
       </c>
       <c r="P5">
-        <v>862</v>
+        <v>40488</v>
       </c>
       <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5">
+        <v>2019</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5">
+        <v>2022</v>
+      </c>
+      <c r="U5" t="s">
         <v>52</v>
       </c>
-      <c r="R5">
-        <v>802</v>
-      </c>
-      <c r="S5" t="s">
-        <v>51</v>
-      </c>
       <c r="V5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" t="s">
         <v>42</v>
-      </c>
-      <c r="W5" t="s">
-        <v>49</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -1372,102 +1352,129 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>9484737284</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="B6">
-        <v>8716172871</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
       </c>
       <c r="O6">
-        <v>804</v>
+        <v>2022</v>
       </c>
       <c r="P6">
-        <v>863</v>
+        <v>40489</v>
       </c>
       <c r="Q6" t="s">
         <v>52</v>
       </c>
       <c r="R6">
-        <v>801</v>
+        <v>2021</v>
       </c>
       <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6">
+        <v>2023</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
         <v>41</v>
       </c>
-      <c r="T6">
-        <v>805</v>
-      </c>
-      <c r="U6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>42</v>
       </c>
-      <c r="W6" t="s">
-        <v>49</v>
-      </c>
       <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>9484737284</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
-        <v>8716172871</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
       </c>
       <c r="O7">
-        <v>805</v>
+        <v>2023</v>
       </c>
       <c r="P7">
-        <v>864</v>
+        <v>40490</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R7">
-        <v>804</v>
+        <v>2022</v>
       </c>
       <c r="S7" t="s">
         <v>52</v>
       </c>
-      <c r="T7">
-        <v>806</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
       <c r="V7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" t="s">
         <v>42</v>
-      </c>
-      <c r="W7" t="s">
-        <v>49</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z7">
         <v>5</v>
@@ -1476,95 +1483,21 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
+      <c r="AG7" t="s">
+        <v>44</v>
       </c>
       <c r="AI7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>8716172871</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8">
-        <v>806</v>
-      </c>
-      <c r="P8">
-        <v>865</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8">
-        <v>805</v>
-      </c>
-      <c r="S8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL8" t="b">
         <v>0</v>
       </c>
     </row>
